--- a/biology/Histoire de la zoologie et de la botanique/Claude_Durival/Claude_Durival.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Durival/Claude_Durival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Durival, né à Saint-Aubin en 1728 et mort à Heillecourt le 2 mars 1805, est un économiste et agronome lorrain puis français, auteur d'ouvrages sur l'agronomie en Lorraine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Durival, né à Saint-Aubin en 1728 et mort à Heillecourt le 2 mars 1805, est un économiste et agronome lorrain puis français, auteur d'ouvrages sur l'agronomie en Lorraine.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le frère de Nicolas Luton Durival, historien et de Jean-Baptiste Durival, diplomate et stratège[2]. 
-Il exerce les fonctions de secrétaire-greffier du roi de Pologne puis d'économe séquestre des bénéfices de Lorraine et du Barrois[3].
-Il mène une réflexion sur l'impôt et s'inscrit dans la lignée des physiocrates[4].
-Dans son ouvrage Équation des tributs, publié en 1764, il analyse le contenu de la déclaration royale du 21 novembre 1763, dont les dispositions lui paraissent annoncer une « heureuse révolution »[4].
-Il devient ensuite premier secrétaire du Ministère des Affaires étrangères, ministre du roi Louis XV en Hollande en 1777[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le frère de Nicolas Luton Durival, historien et de Jean-Baptiste Durival, diplomate et stratège. 
+Il exerce les fonctions de secrétaire-greffier du roi de Pologne puis d'économe séquestre des bénéfices de Lorraine et du Barrois.
+Il mène une réflexion sur l'impôt et s'inscrit dans la lignée des physiocrates.
+Dans son ouvrage Équation des tributs, publié en 1764, il analyse le contenu de la déclaration royale du 21 novembre 1763, dont les dispositions lui paraissent annoncer une « heureuse révolution ».
+Il devient ensuite premier secrétaire du Ministère des Affaires étrangères, ministre du roi Louis XV en Hollande en 1777.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire et tarifs sur les grains, 1757.
 Équation des tributs, 1768.
